--- a/Indice global de envejecimiento.xlsx
+++ b/Indice global de envejecimiento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A0943E-F1C3-4B0F-80CE-05CF3F786C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AE2169-63BD-4DE8-819D-6E96F3CBD76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="14400" windowHeight="9173" xr2:uid="{88D085D3-6680-4C82-A7E2-4642BBAA1D62}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{88D085D3-6680-4C82-A7E2-4642BBAA1D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Fecha</t>
   </si>
@@ -62,52 +62,7 @@
     <t>62º</t>
   </si>
   <si>
-    <t>43,74</t>
-  </si>
-  <si>
-    <t>67,28</t>
-  </si>
-  <si>
-    <t>29,95</t>
-  </si>
-  <si>
-    <t>60,98</t>
-  </si>
-  <si>
-    <t>30,08</t>
-  </si>
-  <si>
-    <t>44,40</t>
-  </si>
-  <si>
-    <t>67,30</t>
-  </si>
-  <si>
-    <t>26,80</t>
-  </si>
-  <si>
-    <t>61,00</t>
-  </si>
-  <si>
-    <t>29,90</t>
-  </si>
-  <si>
     <t>68º</t>
-  </si>
-  <si>
-    <t>39,30</t>
-  </si>
-  <si>
-    <t>64,20</t>
-  </si>
-  <si>
-    <t>31,30</t>
-  </si>
-  <si>
-    <t>52,30</t>
-  </si>
-  <si>
-    <t>22,30</t>
   </si>
 </sst>
 </file>
@@ -523,20 +478,20 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="1">
+        <v>43.74</v>
+      </c>
+      <c r="D2" s="1">
+        <v>67.28</v>
+      </c>
+      <c r="E2" s="1">
+        <v>29.95</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60.98</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30.08</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -546,20 +501,20 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+      <c r="C3" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1">
+        <v>29.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -567,22 +522,22 @@
         <v>2013</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>64.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>22.3</v>
       </c>
     </row>
   </sheetData>
